--- a/docs/worklog.xlsx
+++ b/docs/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karim\Documents\Education &amp; Self Study\Programming Class\24JavaFX\ChromatographySimulator\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A343C5-2537-4BB2-A3C2-BAB7AA882C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F9518A-256A-466E-9118-3EDB147D750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3057,16 +3057,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>573232</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>516081</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>96485</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>105795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3089,28 +3089,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15203632" y="133349"/>
-          <a:ext cx="14647718" cy="10059636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>103910</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52994</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>356554</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>122189</xdr:rowOff>
+          <a:off x="12098481" y="0"/>
+          <a:ext cx="19848369" cy="13631295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>408710</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>51754</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>45989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3133,7 +3133,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323110" y="243494"/>
+          <a:off x="2847110" y="2072294"/>
           <a:ext cx="13663844" cy="7117695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4240,8 +4240,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
